--- a/misc/phone_log.xlsx
+++ b/misc/phone_log.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="65">
   <si>
     <t>last</t>
   </si>
@@ -211,6 +211,9 @@
   </si>
   <si>
     <t>COLEMAN</t>
+  </si>
+  <si>
+    <t>716-777-0957</t>
   </si>
 </sst>
 </file>
@@ -531,7 +534,7 @@
   <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -778,6 +781,9 @@
       <c r="B22" t="s">
         <v>12</v>
       </c>
+      <c r="C22" t="s">
+        <v>64</v>
+      </c>
     </row>
   </sheetData>
   <sortState ref="A2:C21">

--- a/misc/phone_log.xlsx
+++ b/misc/phone_log.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="68">
   <si>
     <t>last</t>
   </si>
@@ -214,6 +214,15 @@
   </si>
   <si>
     <t>716-777-0957</t>
+  </si>
+  <si>
+    <t>HOSKINS</t>
+  </si>
+  <si>
+    <t>SAMANTHA</t>
+  </si>
+  <si>
+    <t>904-735-4798</t>
   </si>
 </sst>
 </file>
@@ -531,10 +540,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -785,6 +794,17 @@
         <v>64</v>
       </c>
     </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>65</v>
+      </c>
+      <c r="B23" t="s">
+        <v>66</v>
+      </c>
+      <c r="C23" t="s">
+        <v>67</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:C21">
     <sortCondition ref="A2:A21"/>

--- a/misc/phone_log.xlsx
+++ b/misc/phone_log.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="71">
   <si>
     <t>last</t>
   </si>
@@ -223,6 +223,15 @@
   </si>
   <si>
     <t>904-735-4798</t>
+  </si>
+  <si>
+    <t>VINE</t>
+  </si>
+  <si>
+    <t>JOSH</t>
+  </si>
+  <si>
+    <t>803-292-3152</t>
   </si>
 </sst>
 </file>
@@ -540,10 +549,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -805,6 +814,17 @@
         <v>67</v>
       </c>
     </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>68</v>
+      </c>
+      <c r="B24" t="s">
+        <v>69</v>
+      </c>
+      <c r="C24" t="s">
+        <v>70</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:C21">
     <sortCondition ref="A2:A21"/>
